--- a/jewels/EPL06-06-22/суммированы_брилл_EPL-63_ring_020-070ct.xlsx
+++ b/jewels/EPL06-06-22/суммированы_брилл_EPL-63_ring_020-070ct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="184">
   <si>
     <t>gem</t>
   </si>
@@ -521,13 +521,63 @@
   </si>
   <si>
     <t>6-5</t>
+  </si>
+  <si>
+    <t>A = 3.52 
+ B = 3.68  
+ C = 33833.14</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>А(золото)</t>
+  </si>
+  <si>
+    <t>В(брилл)</t>
+  </si>
+  <si>
+    <t>курс долл</t>
+  </si>
+  <si>
+    <t>курс золота</t>
+  </si>
+  <si>
+    <t>по коэфф</t>
+  </si>
+  <si>
+    <t>цена с сайта</t>
+  </si>
+  <si>
+    <t>3.5157738711543174, 3.684885310430782, 33833.13737046128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A = -5.64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B = 3.57  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C = 87568.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A = -0.39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B = 5.07  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C = 28249.76</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,16 +593,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -575,18 +645,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -878,20 +983,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB63"/>
+  <dimension ref="A1:AL63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="P31" workbookViewId="0">
+      <selection activeCell="AK63" activeCellId="6" sqref="AK42:AK55 AK57 AK59 AK60 AK61 AK62 AK63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" customWidth="1"/>
     <col min="28" max="28" width="12.5703125" customWidth="1"/>
+    <col min="29" max="29" width="24" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" customWidth="1"/>
+    <col min="35" max="35" width="17.5703125" customWidth="1"/>
+    <col min="36" max="36" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:38" ht="51.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,8 +1094,32 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AC1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:38">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1059,8 +1204,42 @@
       <c r="AB2">
         <v>280.5</v>
       </c>
+      <c r="AC2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD2">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE2">
+        <v>4300</v>
+      </c>
+      <c r="AF2">
+        <v>3.52</v>
+      </c>
+      <c r="AG2">
+        <v>3.68</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>33833.14</v>
+      </c>
+      <c r="AI2" s="5">
+        <f>AE2*P2*AF2+AD2*AB2*AG2+AH2</f>
+        <v>141556.84399999998</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f>K2</f>
+        <v>138860</v>
+      </c>
+      <c r="AK2" s="6">
+        <f>(AJ2-AI2)/AI2</f>
+        <v>-1.9051314820214438E-2</v>
+      </c>
+      <c r="AL2" s="12">
+        <f t="shared" ref="AL2:AL41" si="0">AJ2-AI2</f>
+        <v>-2696.8439999999828</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:38">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1145,8 +1324,45 @@
       <c r="AB3">
         <v>580</v>
       </c>
+      <c r="AC3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD3">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE3">
+        <v>4300</v>
+      </c>
+      <c r="AF3">
+        <f>AF2</f>
+        <v>3.52</v>
+      </c>
+      <c r="AG3">
+        <f>AG2</f>
+        <v>3.68</v>
+      </c>
+      <c r="AH3" s="4">
+        <f>AH2</f>
+        <v>33833.14</v>
+      </c>
+      <c r="AI3" s="5">
+        <f t="shared" ref="AI3:AI63" si="1">AE3*P3*AF3+AD3*AB3*AG3+AH3</f>
+        <v>219206.26</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f t="shared" ref="AJ3:AJ63" si="2">K3</f>
+        <v>201260</v>
+      </c>
+      <c r="AK3" s="6">
+        <f t="shared" ref="AK3:AK63" si="3">(AJ3-AI3)/AI3</f>
+        <v>-8.1869286032251132E-2</v>
+      </c>
+      <c r="AL3" s="12">
+        <f t="shared" si="0"/>
+        <v>-17946.260000000009</v>
+      </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:38">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1231,8 +1447,45 @@
       <c r="AB4">
         <v>545.70000000000005</v>
       </c>
+      <c r="AC4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD4">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE4">
+        <v>4300</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF63" si="4">AF3</f>
+        <v>3.52</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4:AG63" si="5">AG3</f>
+        <v>3.68</v>
+      </c>
+      <c r="AH4" s="4">
+        <f t="shared" ref="AH4:AH63" si="6">AH3</f>
+        <v>33833.14</v>
+      </c>
+      <c r="AI4" s="5">
+        <f t="shared" si="1"/>
+        <v>208440.54960000003</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f t="shared" si="2"/>
+        <v>194890</v>
+      </c>
+      <c r="AK4" s="6">
+        <f t="shared" si="3"/>
+        <v>-6.5009181879455313E-2</v>
+      </c>
+      <c r="AL4" s="12">
+        <f t="shared" si="0"/>
+        <v>-13550.549600000028</v>
+      </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:38">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1317,8 +1570,45 @@
       <c r="AB5">
         <v>2485</v>
       </c>
+      <c r="AC5" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD5">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE5">
+        <v>4300</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI5" s="5">
+        <f t="shared" si="1"/>
+        <v>722991.14000000013</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f t="shared" si="2"/>
+        <v>695890</v>
+      </c>
+      <c r="AK5" s="6">
+        <f t="shared" si="3"/>
+        <v>-3.7484747046831204E-2</v>
+      </c>
+      <c r="AL5" s="12">
+        <f t="shared" si="0"/>
+        <v>-27101.14000000013</v>
+      </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:38">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1403,8 +1693,45 @@
       <c r="AB6">
         <v>1274</v>
       </c>
+      <c r="AC6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE6">
+        <v>4300</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH6" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI6" s="5">
+        <f t="shared" si="1"/>
+        <v>403646.61199999996</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f t="shared" si="2"/>
+        <v>355970</v>
+      </c>
+      <c r="AK6" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.11811473348870812</v>
+      </c>
+      <c r="AL6" s="12">
+        <f t="shared" si="0"/>
+        <v>-47676.611999999965</v>
+      </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:38">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1489,8 +1816,45 @@
       <c r="AB7">
         <v>1101.0999999999999</v>
       </c>
+      <c r="AC7" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD7">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE7">
+        <v>4300</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH7" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI7" s="5">
+        <f t="shared" si="1"/>
+        <v>359133.64079999999</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f t="shared" si="2"/>
+        <v>357080</v>
+      </c>
+      <c r="AK7" s="6">
+        <f t="shared" si="3"/>
+        <v>-5.718319217952789E-3</v>
+      </c>
+      <c r="AL7" s="12">
+        <f t="shared" si="0"/>
+        <v>-2053.6407999999938</v>
+      </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:38">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1575,8 +1939,45 @@
       <c r="AB8">
         <v>1154.2</v>
       </c>
+      <c r="AC8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD8">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE8">
+        <v>4300</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH8" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI8" s="5">
+        <f t="shared" si="1"/>
+        <v>370043.9976</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f t="shared" si="2"/>
+        <v>363990</v>
+      </c>
+      <c r="AK8" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.6360210243280549E-2</v>
+      </c>
+      <c r="AL8" s="12">
+        <f t="shared" si="0"/>
+        <v>-6053.9976000000024</v>
+      </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:38">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1661,8 +2062,42 @@
       <c r="AB9">
         <v>1216.8</v>
       </c>
+      <c r="AD9">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE9">
+        <v>4300</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI9" s="5">
+        <f t="shared" si="1"/>
+        <v>388621.21039999998</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f t="shared" si="2"/>
+        <v>353220</v>
+      </c>
+      <c r="AK9" s="6">
+        <f t="shared" si="3"/>
+        <v>-9.1094385619256937E-2</v>
+      </c>
+      <c r="AL9" s="12">
+        <f t="shared" si="0"/>
+        <v>-35401.210399999982</v>
+      </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:38">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1747,8 +2182,42 @@
       <c r="AB10">
         <v>1216.8</v>
       </c>
+      <c r="AD10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE10">
+        <v>4300</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH10" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI10" s="5">
+        <f t="shared" si="1"/>
+        <v>388621.21039999998</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f t="shared" si="2"/>
+        <v>353220</v>
+      </c>
+      <c r="AK10" s="6">
+        <f t="shared" si="3"/>
+        <v>-9.1094385619256937E-2</v>
+      </c>
+      <c r="AL10" s="12">
+        <f t="shared" si="0"/>
+        <v>-35401.210399999982</v>
+      </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:38">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1833,8 +2302,42 @@
       <c r="AB11">
         <v>568.65</v>
       </c>
+      <c r="AD11">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE11">
+        <v>4300</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH11" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI11" s="5">
+        <f t="shared" si="1"/>
+        <v>213773.02719999995</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f t="shared" si="2"/>
+        <v>202810</v>
+      </c>
+      <c r="AK11" s="6">
+        <f t="shared" si="3"/>
+        <v>-5.128349139081638E-2</v>
+      </c>
+      <c r="AL11" s="12">
+        <f t="shared" si="0"/>
+        <v>-10963.027199999953</v>
+      </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:38">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1919,8 +2422,42 @@
       <c r="AB12">
         <v>1127.0999999999999</v>
       </c>
+      <c r="AD12">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE12">
+        <v>4300</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH12" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI12" s="5">
+        <f t="shared" si="1"/>
+        <v>360885.92879999994</v>
+      </c>
+      <c r="AJ12" s="4">
+        <f t="shared" si="2"/>
+        <v>355540</v>
+      </c>
+      <c r="AK12" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.4813347856969526E-2</v>
+      </c>
+      <c r="AL12" s="12">
+        <f t="shared" si="0"/>
+        <v>-5345.928799999936</v>
+      </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:38">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2005,8 +2542,42 @@
       <c r="AB13">
         <v>1105</v>
       </c>
+      <c r="AD13">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE13">
+        <v>4300</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH13" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI13" s="5">
+        <f t="shared" si="1"/>
+        <v>356233.06</v>
+      </c>
+      <c r="AJ13" s="4">
+        <f t="shared" si="2"/>
+        <v>349990</v>
+      </c>
+      <c r="AK13" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.7525212286585636E-2</v>
+      </c>
+      <c r="AL13" s="12">
+        <f t="shared" si="0"/>
+        <v>-6243.0599999999977</v>
+      </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:38">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2091,8 +2662,42 @@
       <c r="AB14">
         <v>1105</v>
       </c>
+      <c r="AD14">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE14">
+        <v>4300</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH14" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI14" s="5">
+        <f t="shared" si="1"/>
+        <v>353508.58</v>
+      </c>
+      <c r="AJ14" s="4">
+        <f t="shared" si="2"/>
+        <v>347780</v>
+      </c>
+      <c r="AK14" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.6204924927140426E-2</v>
+      </c>
+      <c r="AL14" s="12">
+        <f t="shared" si="0"/>
+        <v>-5728.5800000000163</v>
+      </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:38">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2177,8 +2782,42 @@
       <c r="AB15">
         <v>297.16000000000003</v>
       </c>
+      <c r="AD15">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE15">
+        <v>4300</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH15" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI15" s="5">
+        <f t="shared" si="1"/>
+        <v>138711.92848</v>
+      </c>
+      <c r="AJ15" s="4">
+        <f t="shared" si="2"/>
+        <v>139340</v>
+      </c>
+      <c r="AK15" s="6">
+        <f t="shared" si="3"/>
+        <v>4.5278839886546268E-3</v>
+      </c>
+      <c r="AL15" s="12">
+        <f t="shared" si="0"/>
+        <v>628.07151999999769</v>
+      </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:38">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2263,8 +2902,42 @@
       <c r="AB16">
         <v>339.75</v>
       </c>
+      <c r="AD16">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE16">
+        <v>4300</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH16" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI16" s="5">
+        <f t="shared" si="1"/>
+        <v>154098.96799999999</v>
+      </c>
+      <c r="AJ16" s="4">
+        <f t="shared" si="2"/>
+        <v>157950</v>
+      </c>
+      <c r="AK16" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4990641079439331E-2</v>
+      </c>
+      <c r="AL16" s="12">
+        <f t="shared" si="0"/>
+        <v>3851.0320000000065</v>
+      </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:38">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2349,8 +3022,42 @@
       <c r="AB17">
         <v>409.2</v>
       </c>
+      <c r="AD17">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE17">
+        <v>4300</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH17" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI17" s="5">
+        <f t="shared" si="1"/>
+        <v>169801.51759999996</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f t="shared" si="2"/>
+        <v>169550</v>
+      </c>
+      <c r="AK17" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.4812447117961618E-3</v>
+      </c>
+      <c r="AL17" s="12">
+        <f t="shared" si="0"/>
+        <v>-251.51759999996284</v>
+      </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:38">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2435,8 +3142,42 @@
       <c r="AB18">
         <v>412.8</v>
       </c>
+      <c r="AD18">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE18">
+        <v>4300</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH18" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI18" s="5">
+        <f t="shared" si="1"/>
+        <v>168789.0184</v>
+      </c>
+      <c r="AJ18" s="4">
+        <f t="shared" si="2"/>
+        <v>203360</v>
+      </c>
+      <c r="AK18" s="6">
+        <f t="shared" si="3"/>
+        <v>0.20481771816501065</v>
+      </c>
+      <c r="AL18" s="12">
+        <f t="shared" si="0"/>
+        <v>34570.981599999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:38">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2521,8 +3262,42 @@
       <c r="AB19">
         <v>442.9</v>
       </c>
+      <c r="AD19">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE19">
+        <v>4300</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH19" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI19" s="5">
+        <f t="shared" si="1"/>
+        <v>178288.99119999999</v>
+      </c>
+      <c r="AJ19" s="4">
+        <f t="shared" si="2"/>
+        <v>190750</v>
+      </c>
+      <c r="AK19" s="6">
+        <f t="shared" si="3"/>
+        <v>6.9892194218663634E-2</v>
+      </c>
+      <c r="AL19" s="12">
+        <f t="shared" si="0"/>
+        <v>12461.008800000011</v>
+      </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:38">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2607,8 +3382,42 @@
       <c r="AB20">
         <v>422.3</v>
       </c>
+      <c r="AD20">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE20">
+        <v>4300</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH20" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI20" s="5">
+        <f t="shared" si="1"/>
+        <v>176607.23440000002</v>
+      </c>
+      <c r="AJ20" s="4">
+        <f t="shared" si="2"/>
+        <v>186500</v>
+      </c>
+      <c r="AK20" s="6">
+        <f t="shared" si="3"/>
+        <v>5.601563058053291E-2</v>
+      </c>
+      <c r="AL20" s="12">
+        <f t="shared" si="0"/>
+        <v>9892.7655999999843</v>
+      </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:38">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2693,8 +3502,42 @@
       <c r="AB21">
         <v>483.8</v>
       </c>
+      <c r="AD21">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE21">
+        <v>4300</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH21" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI21" s="5">
+        <f t="shared" si="1"/>
+        <v>192773.54639999999</v>
+      </c>
+      <c r="AJ21" s="4">
+        <f t="shared" si="2"/>
+        <v>162620</v>
+      </c>
+      <c r="AK21" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.15641952416765828</v>
+      </c>
+      <c r="AL21" s="12">
+        <f t="shared" si="0"/>
+        <v>-30153.546399999992</v>
+      </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:38">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2779,8 +3622,42 @@
       <c r="AB22">
         <v>309.55</v>
       </c>
+      <c r="AD22">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE22">
+        <v>4300</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH22" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI22" s="5">
+        <f t="shared" si="1"/>
+        <v>142907.5024</v>
+      </c>
+      <c r="AJ22" s="4">
+        <f t="shared" si="2"/>
+        <v>143450</v>
+      </c>
+      <c r="AK22" s="6">
+        <f t="shared" si="3"/>
+        <v>3.7961449951140033E-3</v>
+      </c>
+      <c r="AL22" s="12">
+        <f t="shared" si="0"/>
+        <v>542.49760000000242</v>
+      </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:38">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2865,8 +3742,42 @@
       <c r="AB23">
         <v>338.25</v>
       </c>
+      <c r="AD23">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE23">
+        <v>4300</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH23" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI23" s="5">
+        <f t="shared" si="1"/>
+        <v>149614.25599999999</v>
+      </c>
+      <c r="AJ23" s="4">
+        <f t="shared" si="2"/>
+        <v>142620</v>
+      </c>
+      <c r="AK23" s="6">
+        <f t="shared" si="3"/>
+        <v>-4.6748593262396027E-2</v>
+      </c>
+      <c r="AL23" s="12">
+        <f t="shared" si="0"/>
+        <v>-6994.2559999999939</v>
+      </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:38">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2951,8 +3862,42 @@
       <c r="AB24">
         <v>616</v>
       </c>
+      <c r="AD24">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE24">
+        <v>4300</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH24" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI24" s="5">
+        <f t="shared" si="1"/>
+        <v>226336.30800000002</v>
+      </c>
+      <c r="AJ24" s="4">
+        <f t="shared" si="2"/>
+        <v>250610</v>
+      </c>
+      <c r="AK24" s="6">
+        <f t="shared" si="3"/>
+        <v>0.10724612508921891</v>
+      </c>
+      <c r="AL24" s="12">
+        <f t="shared" si="0"/>
+        <v>24273.691999999981</v>
+      </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:38">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3037,8 +3982,42 @@
       <c r="AB25">
         <v>748</v>
       </c>
+      <c r="AD25">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE25">
+        <v>4300</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH25" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI25" s="5">
+        <f t="shared" si="1"/>
+        <v>259997.364</v>
+      </c>
+      <c r="AJ25" s="4">
+        <f t="shared" si="2"/>
+        <v>280250</v>
+      </c>
+      <c r="AK25" s="6">
+        <f t="shared" si="3"/>
+        <v>7.7895543587126512E-2</v>
+      </c>
+      <c r="AL25" s="12">
+        <f t="shared" si="0"/>
+        <v>20252.635999999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:38">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3123,8 +4102,42 @@
       <c r="AB26">
         <v>592</v>
       </c>
+      <c r="AD26">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE26">
+        <v>4300</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH26" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI26" s="5">
+        <f t="shared" si="1"/>
+        <v>220573.87599999999</v>
+      </c>
+      <c r="AJ26" s="4">
+        <f t="shared" si="2"/>
+        <v>243450</v>
+      </c>
+      <c r="AK26" s="6">
+        <f t="shared" si="3"/>
+        <v>0.10371184663772247</v>
+      </c>
+      <c r="AL26" s="12">
+        <f t="shared" si="0"/>
+        <v>22876.124000000011</v>
+      </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:38">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3209,8 +4222,42 @@
       <c r="AB27">
         <v>472</v>
       </c>
+      <c r="AD27">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE27">
+        <v>4300</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH27" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI27" s="5">
+        <f t="shared" si="1"/>
+        <v>189794.03600000002</v>
+      </c>
+      <c r="AJ27" s="4">
+        <f t="shared" si="2"/>
+        <v>190360</v>
+      </c>
+      <c r="AK27" s="6">
+        <f t="shared" si="3"/>
+        <v>2.9819904351471721E-3</v>
+      </c>
+      <c r="AL27" s="12">
+        <f t="shared" si="0"/>
+        <v>565.96399999997811</v>
+      </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:38">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3295,8 +4342,42 @@
       <c r="AB28">
         <v>372</v>
       </c>
+      <c r="AD28">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE28">
+        <v>4300</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH28" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI28" s="5">
+        <f t="shared" si="1"/>
+        <v>162353.076</v>
+      </c>
+      <c r="AJ28" s="4">
+        <f t="shared" si="2"/>
+        <v>158640</v>
+      </c>
+      <c r="AK28" s="6">
+        <f t="shared" si="3"/>
+        <v>-2.287037665981765E-2</v>
+      </c>
+      <c r="AL28" s="12">
+        <f t="shared" si="0"/>
+        <v>-3713.0760000000009</v>
+      </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:38">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3381,8 +4462,42 @@
       <c r="AB29">
         <v>356</v>
       </c>
+      <c r="AD29">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE29">
+        <v>4300</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH29" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI29" s="5">
+        <f t="shared" si="1"/>
+        <v>155080.628</v>
+      </c>
+      <c r="AJ29" s="4">
+        <f t="shared" si="2"/>
+        <v>140420</v>
+      </c>
+      <c r="AK29" s="6">
+        <f t="shared" si="3"/>
+        <v>-9.4535521225771649E-2</v>
+      </c>
+      <c r="AL29" s="12">
+        <f t="shared" si="0"/>
+        <v>-14660.627999999997</v>
+      </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:38">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3467,8 +4582,42 @@
       <c r="AB30">
         <v>288</v>
       </c>
+      <c r="AD30">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE30">
+        <v>4300</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH30" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI30" s="5">
+        <f t="shared" si="1"/>
+        <v>138854.64400000003</v>
+      </c>
+      <c r="AJ30" s="4">
+        <f t="shared" si="2"/>
+        <v>111200</v>
+      </c>
+      <c r="AK30" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.19916254295391103</v>
+      </c>
+      <c r="AL30" s="12">
+        <f t="shared" si="0"/>
+        <v>-27654.644000000029</v>
+      </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:38">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3553,8 +4702,42 @@
       <c r="AB31">
         <v>221.76</v>
       </c>
+      <c r="AD31">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE31">
+        <v>4300</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH31" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI31" s="5">
+        <f t="shared" si="1"/>
+        <v>118706.19727999999</v>
+      </c>
+      <c r="AJ31" s="4">
+        <f t="shared" si="2"/>
+        <v>127110</v>
+      </c>
+      <c r="AK31" s="6">
+        <f t="shared" si="3"/>
+        <v>7.0794978801127062E-2</v>
+      </c>
+      <c r="AL31" s="12">
+        <f t="shared" si="0"/>
+        <v>8403.802720000007</v>
+      </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:38">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3639,8 +4822,42 @@
       <c r="AB32">
         <v>344.24</v>
       </c>
+      <c r="AD32">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE32">
+        <v>4300</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH32" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI32" s="5">
+        <f t="shared" si="1"/>
+        <v>153776.69072000001</v>
+      </c>
+      <c r="AJ32" s="4">
+        <f t="shared" si="2"/>
+        <v>140450</v>
+      </c>
+      <c r="AK32" s="6">
+        <f t="shared" si="3"/>
+        <v>-8.6662618746722445E-2</v>
+      </c>
+      <c r="AL32" s="12">
+        <f t="shared" si="0"/>
+        <v>-13326.690720000013</v>
+      </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:38">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3725,8 +4942,42 @@
       <c r="AB33">
         <v>353.4</v>
       </c>
+      <c r="AD33">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE33">
+        <v>4300</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH33" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI33" s="5">
+        <f t="shared" si="1"/>
+        <v>157720.69519999999</v>
+      </c>
+      <c r="AJ33" s="4">
+        <f t="shared" si="2"/>
+        <v>155620</v>
+      </c>
+      <c r="AK33" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.3319084076672188E-2</v>
+      </c>
+      <c r="AL33" s="12">
+        <f t="shared" si="0"/>
+        <v>-2100.6951999999874</v>
+      </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:38">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3811,8 +5062,42 @@
       <c r="AB34">
         <v>119.35</v>
       </c>
+      <c r="AD34">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE34">
+        <v>4300</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH34" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI34" s="5">
+        <f t="shared" si="1"/>
+        <v>92139.396799999988</v>
+      </c>
+      <c r="AJ34" s="4">
+        <f t="shared" si="2"/>
+        <v>88440</v>
+      </c>
+      <c r="AK34" s="6">
+        <f t="shared" si="3"/>
+        <v>-4.0150000200565542E-2</v>
+      </c>
+      <c r="AL34" s="12">
+        <f t="shared" si="0"/>
+        <v>-3699.3967999999877</v>
+      </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:38">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3897,8 +5182,42 @@
       <c r="AB35">
         <v>207</v>
       </c>
+      <c r="AD35">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE35">
+        <v>4300</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH35" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI35" s="5">
+        <f t="shared" si="1"/>
+        <v>114335.876</v>
+      </c>
+      <c r="AJ35" s="4">
+        <f t="shared" si="2"/>
+        <v>96660</v>
+      </c>
+      <c r="AK35" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.15459606047011878</v>
+      </c>
+      <c r="AL35" s="12">
+        <f t="shared" si="0"/>
+        <v>-17675.876000000004</v>
+      </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:38">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3983,8 +5302,42 @@
       <c r="AB36">
         <v>258</v>
       </c>
+      <c r="AD36">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE36">
+        <v>4300</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH36" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI36" s="5">
+        <f t="shared" si="1"/>
+        <v>131197.52399999998</v>
+      </c>
+      <c r="AJ36" s="4">
+        <f t="shared" si="2"/>
+        <v>116610</v>
+      </c>
+      <c r="AK36" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.11118749466643882</v>
+      </c>
+      <c r="AL36" s="12">
+        <f t="shared" si="0"/>
+        <v>-14587.523999999976</v>
+      </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:38">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4069,8 +5422,42 @@
       <c r="AB37">
         <v>300</v>
       </c>
+      <c r="AD37">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE37">
+        <v>4300</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH37" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI37" s="5">
+        <f t="shared" si="1"/>
+        <v>141433.14000000001</v>
+      </c>
+      <c r="AJ37" s="4">
+        <f t="shared" si="2"/>
+        <v>132660</v>
+      </c>
+      <c r="AK37" s="6">
+        <f t="shared" si="3"/>
+        <v>-6.2030299263666301E-2</v>
+      </c>
+      <c r="AL37" s="12">
+        <f t="shared" si="0"/>
+        <v>-8773.140000000014</v>
+      </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:38">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4155,8 +5542,42 @@
       <c r="AB38">
         <v>381</v>
       </c>
+      <c r="AD38">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE38">
+        <v>4300</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH38" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI38" s="5">
+        <f t="shared" si="1"/>
+        <v>162016.54800000001</v>
+      </c>
+      <c r="AJ38" s="4">
+        <f t="shared" si="2"/>
+        <v>148720</v>
+      </c>
+      <c r="AK38" s="6">
+        <f t="shared" si="3"/>
+        <v>-8.2069073586236441E-2</v>
+      </c>
+      <c r="AL38" s="12">
+        <f t="shared" si="0"/>
+        <v>-13296.54800000001</v>
+      </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:38">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4241,8 +5662,42 @@
       <c r="AB39">
         <v>330</v>
       </c>
+      <c r="AD39">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE39">
+        <v>4300</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH39" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI39" s="5">
+        <f t="shared" si="1"/>
+        <v>150301.13999999998</v>
+      </c>
+      <c r="AJ39" s="4">
+        <f t="shared" si="2"/>
+        <v>133500</v>
+      </c>
+      <c r="AK39" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.11178318407964162</v>
+      </c>
+      <c r="AL39" s="12">
+        <f t="shared" si="0"/>
+        <v>-16801.139999999985</v>
+      </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:38">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4327,8 +5782,42 @@
       <c r="AB40">
         <v>342</v>
       </c>
+      <c r="AD40">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE40">
+        <v>4300</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH40" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI40" s="5">
+        <f t="shared" si="1"/>
+        <v>151517.39600000001</v>
+      </c>
+      <c r="AJ40" s="4">
+        <f t="shared" si="2"/>
+        <v>148580</v>
+      </c>
+      <c r="AK40" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.938652641575234E-2</v>
+      </c>
+      <c r="AL40" s="12">
+        <f t="shared" si="0"/>
+        <v>-2937.3960000000079</v>
+      </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:38">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4413,1897 +5902,2677 @@
       <c r="AB41">
         <v>327</v>
       </c>
+      <c r="AD41">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE41">
+        <v>4300</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="5"/>
+        <v>3.68</v>
+      </c>
+      <c r="AH41" s="4">
+        <f t="shared" si="6"/>
+        <v>33833.14</v>
+      </c>
+      <c r="AI41" s="5">
+        <f t="shared" si="1"/>
+        <v>147991.55599999998</v>
+      </c>
+      <c r="AJ41" s="4">
+        <f t="shared" si="2"/>
+        <v>143370</v>
+      </c>
+      <c r="AK41" s="6">
+        <f t="shared" si="3"/>
+        <v>-3.1228511442909505E-2</v>
+      </c>
+      <c r="AL41" s="12">
+        <f t="shared" si="0"/>
+        <v>-4621.5559999999823</v>
+      </c>
     </row>
-    <row r="42" spans="1:28">
-      <c r="A42" s="1">
+    <row r="42" spans="1:38" s="10" customFormat="1">
+      <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10">
         <v>0.26800000000000002</v>
       </c>
-      <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42">
+      <c r="F42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="10">
         <v>3</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="10">
         <v>6</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="10">
         <v>85640</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="10">
         <v>585</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="10">
         <v>1.74</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="10">
         <v>0.26800000000000002</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="10">
         <v>3</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="10">
         <v>6</v>
       </c>
-      <c r="T42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U42" t="s">
-        <v>161</v>
-      </c>
-      <c r="V42" t="s">
+      <c r="T42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U42" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V42" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y42">
+      <c r="W42" s="10">
+        <v>1</v>
+      </c>
+      <c r="X42" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y42" s="10">
         <v>610</v>
       </c>
-      <c r="Z42">
-        <v>1</v>
-      </c>
-      <c r="AA42">
+      <c r="Z42" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="10">
         <v>610</v>
       </c>
-      <c r="AB42">
+      <c r="AB42" s="10">
         <v>163.47999999999999</v>
       </c>
+      <c r="AD42" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE42" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF42" s="10">
+        <v>-0.39</v>
+      </c>
+      <c r="AG42" s="10">
+        <v>5.07</v>
+      </c>
+      <c r="AH42" s="11">
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI42" s="12">
+        <f t="shared" si="1"/>
+        <v>85091.403559999992</v>
+      </c>
+      <c r="AJ42" s="11">
+        <f t="shared" si="2"/>
+        <v>85640</v>
+      </c>
+      <c r="AK42" s="13">
+        <f t="shared" si="3"/>
+        <v>6.4471429198271471E-3</v>
+      </c>
+      <c r="AL42" s="12">
+        <f>AJ42-AI42</f>
+        <v>548.59644000000844</v>
+      </c>
     </row>
-    <row r="43" spans="1:28">
-      <c r="A43" s="1">
+    <row r="43" spans="1:38" s="10" customFormat="1">
+      <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10">
         <v>0.255</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="10">
         <v>3</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="10">
         <v>6</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="10">
         <v>82970</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="10">
         <v>585</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="10">
         <v>1.77</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="10">
         <v>0.255</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="10">
         <v>3</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="10">
         <v>6</v>
       </c>
-      <c r="T43" t="s">
-        <v>30</v>
-      </c>
-      <c r="U43" t="s">
-        <v>161</v>
-      </c>
-      <c r="V43" t="s">
+      <c r="T43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U43" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V43" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="X43" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y43">
+      <c r="W43" s="10">
+        <v>1</v>
+      </c>
+      <c r="X43" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y43" s="10">
         <v>610</v>
       </c>
-      <c r="Z43">
-        <v>1</v>
-      </c>
-      <c r="AA43">
+      <c r="Z43" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="10">
         <v>610</v>
       </c>
-      <c r="AB43">
+      <c r="AB43" s="10">
         <v>155.55000000000001</v>
       </c>
+      <c r="AD43" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE43" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF43" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG43" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH43" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI43" s="12">
+        <f t="shared" si="1"/>
+        <v>82142.305850000004</v>
+      </c>
+      <c r="AJ43" s="11">
+        <f t="shared" si="2"/>
+        <v>82970</v>
+      </c>
+      <c r="AK43" s="13">
+        <f t="shared" si="3"/>
+        <v>1.0076344234984679E-2</v>
+      </c>
+      <c r="AL43" s="12">
+        <f t="shared" ref="AL43:AL63" si="7">AJ43-AI43</f>
+        <v>827.69414999999572</v>
+      </c>
     </row>
-    <row r="44" spans="1:28">
-      <c r="A44" s="1">
+    <row r="44" spans="1:38" s="10" customFormat="1">
+      <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10">
         <v>0.254</v>
       </c>
-      <c r="F44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44">
+      <c r="F44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="10">
         <v>3</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="10">
         <v>6</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="10">
         <v>82860</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="10">
         <v>585</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="10">
         <v>1.78</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="10">
         <v>0.254</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="10">
         <v>3</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="10">
         <v>6</v>
       </c>
-      <c r="T44" t="s">
-        <v>30</v>
-      </c>
-      <c r="U44" t="s">
-        <v>161</v>
-      </c>
-      <c r="V44" t="s">
+      <c r="T44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U44" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V44" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="W44">
-        <v>1</v>
-      </c>
-      <c r="X44" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y44">
+      <c r="W44" s="10">
+        <v>1</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y44" s="10">
         <v>610</v>
       </c>
-      <c r="Z44">
-        <v>1</v>
-      </c>
-      <c r="AA44">
+      <c r="Z44" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="10">
         <v>610</v>
       </c>
-      <c r="AB44">
+      <c r="AB44" s="10">
         <v>154.94</v>
       </c>
+      <c r="AD44" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE44" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF44" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG44" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH44" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI44" s="12">
+        <f t="shared" si="1"/>
+        <v>81902.552179999999</v>
+      </c>
+      <c r="AJ44" s="11">
+        <f t="shared" si="2"/>
+        <v>82860</v>
+      </c>
+      <c r="AK44" s="13">
+        <f t="shared" si="3"/>
+        <v>1.1690085284470573E-2</v>
+      </c>
+      <c r="AL44" s="12">
+        <f t="shared" si="7"/>
+        <v>957.44782000000123</v>
+      </c>
     </row>
-    <row r="45" spans="1:28">
-      <c r="A45" s="1">
+    <row r="45" spans="1:38" s="10" customFormat="1">
+      <c r="A45" s="9">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10">
         <v>0.254</v>
       </c>
-      <c r="F45" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45">
+      <c r="F45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="10">
         <v>3</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="10">
         <v>6</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="10">
         <v>80920</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="10">
         <v>585</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="10">
         <v>1.63</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="10">
         <v>0.254</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="10">
         <v>3</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="10">
         <v>6</v>
       </c>
-      <c r="T45" t="s">
-        <v>30</v>
-      </c>
-      <c r="U45" t="s">
-        <v>161</v>
-      </c>
-      <c r="V45" t="s">
+      <c r="T45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U45" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V45" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="X45" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y45">
+      <c r="W45" s="10">
+        <v>1</v>
+      </c>
+      <c r="X45" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y45" s="10">
         <v>610</v>
       </c>
-      <c r="Z45">
-        <v>1</v>
-      </c>
-      <c r="AA45">
+      <c r="Z45" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="10">
         <v>610</v>
       </c>
-      <c r="AB45">
+      <c r="AB45" s="10">
         <v>154.94</v>
       </c>
+      <c r="AD45" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE45" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF45" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG45" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH45" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI45" s="12">
+        <f t="shared" si="1"/>
+        <v>82154.102180000002</v>
+      </c>
+      <c r="AJ45" s="11">
+        <f t="shared" si="2"/>
+        <v>80920</v>
+      </c>
+      <c r="AK45" s="13">
+        <f t="shared" si="3"/>
+        <v>-1.5021796200706794E-2</v>
+      </c>
+      <c r="AL45" s="12">
+        <f t="shared" si="7"/>
+        <v>-1234.1021800000017</v>
+      </c>
     </row>
-    <row r="46" spans="1:28">
-      <c r="A46" s="1">
+    <row r="46" spans="1:38" s="10" customFormat="1">
+      <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="10">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10">
         <v>0.252</v>
       </c>
-      <c r="F46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46">
+      <c r="F46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="10">
         <v>3</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="10">
         <v>6</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="10">
         <v>83560</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="10">
         <v>585</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="10">
         <v>1.87</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="10">
         <v>0.252</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="10">
         <v>3</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="10">
         <v>6</v>
       </c>
-      <c r="T46" t="s">
-        <v>30</v>
-      </c>
-      <c r="U46" t="s">
-        <v>161</v>
-      </c>
-      <c r="V46" t="s">
+      <c r="T46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U46" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V46" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="W46">
-        <v>1</v>
-      </c>
-      <c r="X46" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y46">
+      <c r="W46" s="10">
+        <v>1</v>
+      </c>
+      <c r="X46" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y46" s="10">
         <v>610</v>
       </c>
-      <c r="Z46">
-        <v>1</v>
-      </c>
-      <c r="AA46">
+      <c r="Z46" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="10">
         <v>610</v>
       </c>
-      <c r="AB46">
+      <c r="AB46" s="10">
         <v>153.72</v>
       </c>
+      <c r="AD46" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE46" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF46" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG46" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH46" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI46" s="12">
+        <f t="shared" si="1"/>
+        <v>81305.654840000003</v>
+      </c>
+      <c r="AJ46" s="11">
+        <f t="shared" si="2"/>
+        <v>83560</v>
+      </c>
+      <c r="AK46" s="13">
+        <f t="shared" si="3"/>
+        <v>2.7726794211746824E-2</v>
+      </c>
+      <c r="AL46" s="12">
+        <f t="shared" si="7"/>
+        <v>2254.3451599999971</v>
+      </c>
     </row>
-    <row r="47" spans="1:28">
-      <c r="A47" s="1">
+    <row r="47" spans="1:38" s="10" customFormat="1">
+      <c r="A47" s="9">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10">
         <v>0.251</v>
       </c>
-      <c r="F47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47">
+      <c r="F47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="10">
         <v>3</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="10">
         <v>6</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="10">
         <v>81380</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="10">
         <v>585</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="10">
         <v>1.72</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="10">
         <v>0.251</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="10">
         <v>3</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="10">
         <v>6</v>
       </c>
-      <c r="T47" t="s">
-        <v>30</v>
-      </c>
-      <c r="U47" t="s">
-        <v>161</v>
-      </c>
-      <c r="V47" t="s">
+      <c r="T47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U47" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V47" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="W47">
-        <v>1</v>
-      </c>
-      <c r="X47" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y47">
+      <c r="W47" s="10">
+        <v>1</v>
+      </c>
+      <c r="X47" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y47" s="10">
         <v>610</v>
       </c>
-      <c r="Z47">
-        <v>1</v>
-      </c>
-      <c r="AA47">
+      <c r="Z47" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="10">
         <v>610</v>
       </c>
-      <c r="AB47">
+      <c r="AB47" s="10">
         <v>153.11000000000001</v>
       </c>
+      <c r="AD47" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE47" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF47" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG47" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH47" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI47" s="12">
+        <f t="shared" si="1"/>
+        <v>81334.221170000004</v>
+      </c>
+      <c r="AJ47" s="11">
+        <f t="shared" si="2"/>
+        <v>81380</v>
+      </c>
+      <c r="AK47" s="13">
+        <f t="shared" si="3"/>
+        <v>5.6284832314692525E-4</v>
+      </c>
+      <c r="AL47" s="12">
+        <f t="shared" si="7"/>
+        <v>45.778829999995651</v>
+      </c>
     </row>
-    <row r="48" spans="1:28">
-      <c r="A48" s="1">
+    <row r="48" spans="1:38" s="10" customFormat="1">
+      <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10">
         <v>0.248</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="10">
         <v>3</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="10">
         <v>6</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="10">
         <v>81450</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="10">
         <v>585</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="10">
         <v>1.78</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="10">
         <v>0.248</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="10">
         <v>3</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="10">
         <v>6</v>
       </c>
-      <c r="T48" t="s">
-        <v>30</v>
-      </c>
-      <c r="U48" t="s">
-        <v>161</v>
-      </c>
-      <c r="V48" t="s">
+      <c r="T48" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V48" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="W48">
-        <v>1</v>
-      </c>
-      <c r="X48" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y48">
+      <c r="W48" s="10">
+        <v>1</v>
+      </c>
+      <c r="X48" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y48" s="10">
         <v>590</v>
       </c>
-      <c r="Z48">
-        <v>1</v>
-      </c>
-      <c r="AA48">
+      <c r="Z48" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="10">
         <v>590</v>
       </c>
-      <c r="AB48">
+      <c r="AB48" s="10">
         <v>146.32</v>
       </c>
+      <c r="AD48" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE48" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF48" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG48" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH48" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI48" s="12">
+        <f t="shared" si="1"/>
+        <v>78751.537039999996</v>
+      </c>
+      <c r="AJ48" s="11">
+        <f t="shared" si="2"/>
+        <v>81450</v>
+      </c>
+      <c r="AK48" s="13">
+        <f t="shared" si="3"/>
+        <v>3.4265527523981959E-2</v>
+      </c>
+      <c r="AL48" s="12">
+        <f t="shared" si="7"/>
+        <v>2698.4629600000044</v>
+      </c>
     </row>
-    <row r="49" spans="1:28">
-      <c r="A49" s="1">
+    <row r="49" spans="1:38" s="10" customFormat="1">
+      <c r="A49" s="9">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10">
         <v>0.247</v>
       </c>
-      <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49">
+      <c r="F49" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="10">
         <v>3</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="10">
         <v>6</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="10">
         <v>81990</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="10">
         <v>585</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="10">
         <v>1.84</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="10">
         <v>0.247</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="10">
         <v>3</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="10">
         <v>6</v>
       </c>
-      <c r="T49" t="s">
-        <v>30</v>
-      </c>
-      <c r="U49" t="s">
-        <v>161</v>
-      </c>
-      <c r="V49" t="s">
+      <c r="T49" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U49" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V49" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="W49">
-        <v>1</v>
-      </c>
-      <c r="X49" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y49">
+      <c r="W49" s="10">
+        <v>1</v>
+      </c>
+      <c r="X49" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y49" s="10">
         <v>590</v>
       </c>
-      <c r="Z49">
-        <v>1</v>
-      </c>
-      <c r="AA49">
+      <c r="Z49" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="10">
         <v>590</v>
       </c>
-      <c r="AB49">
+      <c r="AB49" s="10">
         <v>145.72999999999999</v>
       </c>
+      <c r="AD49" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE49" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF49" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG49" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH49" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI49" s="12">
+        <f t="shared" si="1"/>
+        <v>78435.244309999995</v>
+      </c>
+      <c r="AJ49" s="11">
+        <f t="shared" si="2"/>
+        <v>81990</v>
+      </c>
+      <c r="AK49" s="13">
+        <f t="shared" si="3"/>
+        <v>4.532089778353373E-2</v>
+      </c>
+      <c r="AL49" s="12">
+        <f t="shared" si="7"/>
+        <v>3554.7556900000054</v>
+      </c>
     </row>
-    <row r="50" spans="1:28">
-      <c r="A50" s="1">
+    <row r="50" spans="1:38" s="10" customFormat="1">
+      <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10">
         <v>0.246</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="10">
         <v>3</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="10">
         <v>6</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="10">
         <v>81890</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="10">
         <v>0</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="10">
         <v>585</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="10">
         <v>1.85</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="10">
         <v>0.246</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="10">
         <v>3</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="10">
         <v>6</v>
       </c>
-      <c r="T50" t="s">
-        <v>30</v>
-      </c>
-      <c r="U50" t="s">
-        <v>161</v>
-      </c>
-      <c r="V50" t="s">
+      <c r="T50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U50" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V50" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="W50">
-        <v>1</v>
-      </c>
-      <c r="X50" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y50">
+      <c r="W50" s="10">
+        <v>1</v>
+      </c>
+      <c r="X50" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y50" s="10">
         <v>590</v>
       </c>
-      <c r="Z50">
-        <v>1</v>
-      </c>
-      <c r="AA50">
+      <c r="Z50" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="10">
         <v>590</v>
       </c>
-      <c r="AB50">
+      <c r="AB50" s="10">
         <v>145.13999999999999</v>
       </c>
+      <c r="AD50" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE50" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF50" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG50" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH50" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI50" s="12">
+        <f t="shared" si="1"/>
+        <v>78202.801579999985</v>
+      </c>
+      <c r="AJ50" s="11">
+        <f t="shared" si="2"/>
+        <v>81890</v>
+      </c>
+      <c r="AK50" s="13">
+        <f t="shared" si="3"/>
+        <v>4.714918577729061E-2</v>
+      </c>
+      <c r="AL50" s="12">
+        <f t="shared" si="7"/>
+        <v>3687.1984200000152</v>
+      </c>
     </row>
-    <row r="51" spans="1:28">
-      <c r="A51" s="1">
+    <row r="51" spans="1:38" s="10" customFormat="1">
+      <c r="A51" s="9">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
+      <c r="D51" s="10">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10">
         <v>0.23699999999999999</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="10">
         <v>3</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="10">
         <v>6</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="10">
         <v>78480</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="10">
         <v>585</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="10">
         <v>1.77</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="10">
         <v>0.23699999999999999</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="10">
         <v>3</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="10">
         <v>6</v>
       </c>
-      <c r="T51" t="s">
-        <v>30</v>
-      </c>
-      <c r="U51" t="s">
-        <v>161</v>
-      </c>
-      <c r="V51" t="s">
+      <c r="T51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V51" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="W51">
-        <v>1</v>
-      </c>
-      <c r="X51" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y51">
+      <c r="W51" s="10">
+        <v>1</v>
+      </c>
+      <c r="X51" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y51" s="10">
         <v>590</v>
       </c>
-      <c r="Z51">
-        <v>1</v>
-      </c>
-      <c r="AA51">
+      <c r="Z51" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="10">
         <v>590</v>
       </c>
-      <c r="AB51">
+      <c r="AB51" s="10">
         <v>139.83000000000001</v>
       </c>
+      <c r="AD51" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE51" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF51" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG51" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH51" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI51" s="12">
+        <f t="shared" si="1"/>
+        <v>76395.907009999995</v>
+      </c>
+      <c r="AJ51" s="11">
+        <f t="shared" si="2"/>
+        <v>78480</v>
+      </c>
+      <c r="AK51" s="13">
+        <f t="shared" si="3"/>
+        <v>2.7280165542470793E-2</v>
+      </c>
+      <c r="AL51" s="12">
+        <f t="shared" si="7"/>
+        <v>2084.0929900000046</v>
+      </c>
     </row>
-    <row r="52" spans="1:28">
-      <c r="A52" s="1">
+    <row r="52" spans="1:38" s="10" customFormat="1">
+      <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52">
+      <c r="F52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="10">
         <v>3</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="10">
         <v>6</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="10">
         <v>78410</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="10">
         <v>585</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="10">
         <v>1.8</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="10">
         <v>0.23499999999999999</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="10">
         <v>3</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="10">
         <v>6</v>
       </c>
-      <c r="T52" t="s">
-        <v>30</v>
-      </c>
-      <c r="U52" t="s">
-        <v>161</v>
-      </c>
-      <c r="V52" t="s">
+      <c r="T52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U52" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V52" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="W52">
-        <v>1</v>
-      </c>
-      <c r="X52" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y52">
+      <c r="W52" s="10">
+        <v>1</v>
+      </c>
+      <c r="X52" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y52" s="10">
         <v>590</v>
       </c>
-      <c r="Z52">
-        <v>1</v>
-      </c>
-      <c r="AA52">
+      <c r="Z52" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="10">
         <v>590</v>
       </c>
-      <c r="AB52">
+      <c r="AB52" s="10">
         <v>138.65</v>
       </c>
+      <c r="AD52" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE52" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF52" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG52" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH52" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI52" s="12">
+        <f t="shared" si="1"/>
+        <v>75914.251550000001</v>
+      </c>
+      <c r="AJ52" s="11">
+        <f t="shared" si="2"/>
+        <v>78410</v>
+      </c>
+      <c r="AK52" s="13">
+        <f t="shared" si="3"/>
+        <v>3.2875888242884205E-2</v>
+      </c>
+      <c r="AL52" s="12">
+        <f t="shared" si="7"/>
+        <v>2495.7484499999991</v>
+      </c>
     </row>
-    <row r="53" spans="1:28">
-      <c r="A53" s="1">
+    <row r="53" spans="1:38" s="10" customFormat="1">
+      <c r="A53" s="9">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10">
         <v>0.23400000000000001</v>
       </c>
-      <c r="F53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53">
+      <c r="F53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="10">
         <v>3</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="10">
         <v>6</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="10">
         <v>78820</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="10">
         <v>585</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="10">
         <v>1.85</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="10">
         <v>0.23400000000000001</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="10">
         <v>3</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="10">
         <v>6</v>
       </c>
-      <c r="T53" t="s">
-        <v>30</v>
-      </c>
-      <c r="U53" t="s">
-        <v>161</v>
-      </c>
-      <c r="V53" t="s">
+      <c r="T53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U53" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V53" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="W53">
-        <v>1</v>
-      </c>
-      <c r="X53" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y53">
+      <c r="W53" s="10">
+        <v>1</v>
+      </c>
+      <c r="X53" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y53" s="10">
         <v>590</v>
       </c>
-      <c r="Z53">
-        <v>1</v>
-      </c>
-      <c r="AA53">
+      <c r="Z53" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="10">
         <v>590</v>
       </c>
-      <c r="AB53">
+      <c r="AB53" s="10">
         <v>138.06</v>
       </c>
+      <c r="AD53" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE53" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF53" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG53" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH53" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI53" s="12">
+        <f t="shared" si="1"/>
+        <v>75614.728820000004</v>
+      </c>
+      <c r="AJ53" s="11">
+        <f t="shared" si="2"/>
+        <v>78820</v>
+      </c>
+      <c r="AK53" s="13">
+        <f t="shared" si="3"/>
+        <v>4.2389508367213849E-2</v>
+      </c>
+      <c r="AL53" s="12">
+        <f t="shared" si="7"/>
+        <v>3205.2711799999961</v>
+      </c>
     </row>
-    <row r="54" spans="1:28">
-      <c r="A54" s="1">
+    <row r="54" spans="1:38" s="10" customFormat="1">
+      <c r="A54" s="9">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="10">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10">
         <v>0.23</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="10">
         <v>3</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="10">
         <v>6</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="10">
         <v>75550</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N54" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="10">
         <v>585</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="10">
         <v>1.67</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="10">
         <v>0.23</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="10">
         <v>3</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="10">
         <v>6</v>
       </c>
-      <c r="T54" t="s">
-        <v>30</v>
-      </c>
-      <c r="U54" t="s">
-        <v>161</v>
-      </c>
-      <c r="V54" t="s">
+      <c r="T54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U54" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V54" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="W54">
-        <v>1</v>
-      </c>
-      <c r="X54" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y54">
+      <c r="W54" s="10">
+        <v>1</v>
+      </c>
+      <c r="X54" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y54" s="10">
         <v>590</v>
       </c>
-      <c r="Z54">
-        <v>1</v>
-      </c>
-      <c r="AA54">
+      <c r="Z54" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="10">
         <v>590</v>
       </c>
-      <c r="AB54">
+      <c r="AB54" s="10">
         <v>135.69999999999999</v>
       </c>
+      <c r="AD54" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE54" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF54" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG54" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH54" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI54" s="12">
+        <f t="shared" si="1"/>
+        <v>75053.897899999982</v>
+      </c>
+      <c r="AJ54" s="11">
+        <f t="shared" si="2"/>
+        <v>75550</v>
+      </c>
+      <c r="AK54" s="13">
+        <f t="shared" si="3"/>
+        <v>6.6099445049611254E-3</v>
+      </c>
+      <c r="AL54" s="12">
+        <f t="shared" si="7"/>
+        <v>496.10210000001825</v>
+      </c>
     </row>
-    <row r="55" spans="1:28">
-      <c r="A55" s="1">
+    <row r="55" spans="1:38" s="10" customFormat="1">
+      <c r="A55" s="9">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="10">
         <v>3</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="10">
         <v>6</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="10">
         <v>68050</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="10">
         <v>585</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="10">
         <v>1.53</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="10">
         <v>0.22800000000000001</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="10">
         <v>3</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="10">
         <v>6</v>
       </c>
-      <c r="T55" t="s">
-        <v>30</v>
-      </c>
-      <c r="U55" t="s">
-        <v>161</v>
-      </c>
-      <c r="V55" t="s">
+      <c r="T55" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U55" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V55" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="W55">
-        <v>1</v>
-      </c>
-      <c r="X55" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y55">
+      <c r="W55" s="10">
+        <v>1</v>
+      </c>
+      <c r="X55" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y55" s="10">
         <v>590</v>
       </c>
-      <c r="Z55">
-        <v>1</v>
-      </c>
-      <c r="AA55">
+      <c r="Z55" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="10">
         <v>590</v>
       </c>
-      <c r="AB55">
+      <c r="AB55" s="10">
         <v>134.52000000000001</v>
       </c>
+      <c r="AD55" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE55" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF55" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG55" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH55" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI55" s="12">
+        <f t="shared" si="1"/>
+        <v>74857.332439999998</v>
+      </c>
+      <c r="AJ55" s="11">
+        <f t="shared" si="2"/>
+        <v>68050</v>
+      </c>
+      <c r="AK55" s="13">
+        <f t="shared" si="3"/>
+        <v>-9.0937416791551359E-2</v>
+      </c>
+      <c r="AL55" s="12">
+        <f t="shared" si="7"/>
+        <v>-6807.3324399999983</v>
+      </c>
     </row>
-    <row r="56" spans="1:28">
-      <c r="A56" s="1">
+    <row r="56" spans="1:38" s="10" customFormat="1">
+      <c r="A56" s="9">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="10">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10">
         <v>0.189</v>
       </c>
-      <c r="F56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56">
+      <c r="F56" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="10">
         <v>3</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="10">
         <v>6</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="10">
         <v>81400</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="10">
         <v>585</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="10">
         <v>1.66</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="10">
         <v>0.189</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="10">
         <v>3</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="10">
         <v>6</v>
       </c>
-      <c r="T56" t="s">
-        <v>30</v>
-      </c>
-      <c r="U56" t="s">
-        <v>161</v>
-      </c>
-      <c r="V56" t="s">
+      <c r="T56" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U56" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V56" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="W56">
-        <v>1</v>
-      </c>
-      <c r="X56" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y56">
+      <c r="W56" s="10">
+        <v>1</v>
+      </c>
+      <c r="X56" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y56" s="10">
         <v>565</v>
       </c>
-      <c r="Z56">
-        <v>1</v>
-      </c>
-      <c r="AA56">
+      <c r="Z56" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="10">
         <v>565</v>
       </c>
-      <c r="AB56">
+      <c r="AB56" s="10">
         <v>106.78</v>
       </c>
+      <c r="AD56" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE56" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF56" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG56" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH56" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI56" s="12">
+        <f t="shared" si="1"/>
+        <v>64499.04866</v>
+      </c>
+      <c r="AJ56" s="11">
+        <f t="shared" si="2"/>
+        <v>81400</v>
+      </c>
+      <c r="AK56" s="13">
+        <f t="shared" si="3"/>
+        <v>0.26203411819438766</v>
+      </c>
+      <c r="AL56" s="12">
+        <f t="shared" si="7"/>
+        <v>16900.95134</v>
+      </c>
     </row>
-    <row r="57" spans="1:28">
-      <c r="A57" s="1">
+    <row r="57" spans="1:38" s="10" customFormat="1">
+      <c r="A57" s="9">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="10">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10">
         <v>0.185</v>
       </c>
-      <c r="F57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57">
+      <c r="F57" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="10">
         <v>3</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="10">
         <v>6</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="10">
         <v>60270</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="10">
         <v>0</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N57" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="10">
         <v>585</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="10">
         <v>1.78</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" s="10">
         <v>0.185</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="10">
         <v>3</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="10">
         <v>6</v>
       </c>
-      <c r="T57" t="s">
-        <v>30</v>
-      </c>
-      <c r="U57" t="s">
-        <v>161</v>
-      </c>
-      <c r="V57" t="s">
+      <c r="T57" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U57" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V57" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="W57">
-        <v>1</v>
-      </c>
-      <c r="X57" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y57">
+      <c r="W57" s="10">
+        <v>1</v>
+      </c>
+      <c r="X57" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y57" s="10">
         <v>565</v>
       </c>
-      <c r="Z57">
-        <v>1</v>
-      </c>
-      <c r="AA57">
+      <c r="Z57" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="10">
         <v>565</v>
       </c>
-      <c r="AB57">
+      <c r="AB57" s="10">
         <v>104.52</v>
       </c>
+      <c r="AD57" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE57" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF57" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG57" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH57" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI57" s="12">
+        <f t="shared" si="1"/>
+        <v>63471.672439999995</v>
+      </c>
+      <c r="AJ57" s="11">
+        <f t="shared" si="2"/>
+        <v>60270</v>
+      </c>
+      <c r="AK57" s="13">
+        <f t="shared" si="3"/>
+        <v>-5.0442541009558986E-2</v>
+      </c>
+      <c r="AL57" s="12">
+        <f t="shared" si="7"/>
+        <v>-3201.6724399999948</v>
+      </c>
     </row>
-    <row r="58" spans="1:28">
-      <c r="A58" s="1">
+    <row r="58" spans="1:38" s="10" customFormat="1">
+      <c r="A58" s="9">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="10">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10">
         <v>0.185</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="10">
         <v>3</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="10">
         <v>6</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="10">
         <v>76680</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="10">
         <v>585</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="10">
         <v>1.66</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="10">
         <v>0.185</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="10">
         <v>3</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="10">
         <v>6</v>
       </c>
-      <c r="T58" t="s">
-        <v>30</v>
-      </c>
-      <c r="U58" t="s">
-        <v>161</v>
-      </c>
-      <c r="V58" t="s">
+      <c r="T58" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U58" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V58" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="W58">
-        <v>1</v>
-      </c>
-      <c r="X58" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y58">
+      <c r="W58" s="10">
+        <v>1</v>
+      </c>
+      <c r="X58" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y58" s="10">
         <v>565</v>
       </c>
-      <c r="Z58">
-        <v>1</v>
-      </c>
-      <c r="AA58">
+      <c r="Z58" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="10">
         <v>565</v>
       </c>
-      <c r="AB58">
+      <c r="AB58" s="10">
         <v>104.52</v>
       </c>
+      <c r="AD58" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE58" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF58" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG58" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH58" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI58" s="12">
+        <f t="shared" si="1"/>
+        <v>63672.91244</v>
+      </c>
+      <c r="AJ58" s="11">
+        <f t="shared" si="2"/>
+        <v>76680</v>
+      </c>
+      <c r="AK58" s="13">
+        <f t="shared" si="3"/>
+        <v>0.20427976452713367</v>
+      </c>
+      <c r="AL58" s="12">
+        <f t="shared" si="7"/>
+        <v>13007.08756</v>
+      </c>
     </row>
-    <row r="59" spans="1:28">
-      <c r="A59" s="1">
+    <row r="59" spans="1:38" s="10" customFormat="1">
+      <c r="A59" s="9">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="10">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10">
         <v>0.184</v>
       </c>
-      <c r="F59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59">
+      <c r="F59" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="10">
         <v>3</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="10">
         <v>6</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="10">
         <v>60460</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="10">
         <v>585</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="10">
         <v>1.81</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="10">
         <v>0.184</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="10">
         <v>3</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="10">
         <v>6</v>
       </c>
-      <c r="T59" t="s">
-        <v>30</v>
-      </c>
-      <c r="U59" t="s">
-        <v>161</v>
-      </c>
-      <c r="V59" t="s">
+      <c r="T59" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U59" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V59" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="W59">
-        <v>1</v>
-      </c>
-      <c r="X59" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y59">
+      <c r="W59" s="10">
+        <v>1</v>
+      </c>
+      <c r="X59" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y59" s="10">
         <v>565</v>
       </c>
-      <c r="Z59">
-        <v>1</v>
-      </c>
-      <c r="AA59">
+      <c r="Z59" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="10">
         <v>565</v>
       </c>
-      <c r="AB59">
+      <c r="AB59" s="10">
         <v>103.96</v>
       </c>
+      <c r="AD59" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE59" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF59" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG59" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH59" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI59" s="12">
+        <f t="shared" si="1"/>
+        <v>63216.656119999985</v>
+      </c>
+      <c r="AJ59" s="11">
+        <f t="shared" si="2"/>
+        <v>60460</v>
+      </c>
+      <c r="AK59" s="13">
+        <f t="shared" si="3"/>
+        <v>-4.3606484258946053E-2</v>
+      </c>
+      <c r="AL59" s="12">
+        <f t="shared" si="7"/>
+        <v>-2756.6561199999851</v>
+      </c>
     </row>
-    <row r="60" spans="1:28">
-      <c r="A60" s="1">
+    <row r="60" spans="1:38" s="10" customFormat="1">
+      <c r="A60" s="9">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="10">
+        <v>1</v>
+      </c>
+      <c r="E60" s="10">
         <v>0.184</v>
       </c>
-      <c r="F60" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="10">
         <v>3</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="10">
         <v>6</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="10">
         <v>60980</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="10">
         <v>585</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="10">
         <v>1.85</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="10">
         <v>0.184</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="10">
         <v>3</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="10">
         <v>6</v>
       </c>
-      <c r="T60" t="s">
-        <v>30</v>
-      </c>
-      <c r="U60" t="s">
-        <v>161</v>
-      </c>
-      <c r="V60" t="s">
+      <c r="T60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U60" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V60" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="W60">
-        <v>1</v>
-      </c>
-      <c r="X60" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y60">
+      <c r="W60" s="10">
+        <v>1</v>
+      </c>
+      <c r="X60" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y60" s="10">
         <v>565</v>
       </c>
-      <c r="Z60">
-        <v>1</v>
-      </c>
-      <c r="AA60">
+      <c r="Z60" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="10">
         <v>565</v>
       </c>
-      <c r="AB60">
+      <c r="AB60" s="10">
         <v>103.96</v>
       </c>
+      <c r="AD60" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE60" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF60" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG60" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH60" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI60" s="12">
+        <f t="shared" si="1"/>
+        <v>63149.576119999998</v>
+      </c>
+      <c r="AJ60" s="11">
+        <f t="shared" si="2"/>
+        <v>60980</v>
+      </c>
+      <c r="AK60" s="13">
+        <f t="shared" si="3"/>
+        <v>-3.4356146997364799E-2</v>
+      </c>
+      <c r="AL60" s="12">
+        <f t="shared" si="7"/>
+        <v>-2169.5761199999979</v>
+      </c>
     </row>
-    <row r="61" spans="1:28">
-      <c r="A61" s="1">
+    <row r="61" spans="1:38" s="10" customFormat="1">
+      <c r="A61" s="9">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="10">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10">
         <v>0.184</v>
       </c>
-      <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="10">
         <v>3</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="10">
         <v>6</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="10">
         <v>58640</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="10">
         <v>585</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="10">
         <v>1.67</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="10">
         <v>0.184</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="10">
         <v>3</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="10">
         <v>6</v>
       </c>
-      <c r="T61" t="s">
-        <v>30</v>
-      </c>
-      <c r="U61" t="s">
-        <v>161</v>
-      </c>
-      <c r="V61" t="s">
+      <c r="T61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U61" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V61" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="W61">
-        <v>1</v>
-      </c>
-      <c r="X61" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y61">
+      <c r="W61" s="10">
+        <v>1</v>
+      </c>
+      <c r="X61" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y61" s="10">
         <v>565</v>
       </c>
-      <c r="Z61">
-        <v>1</v>
-      </c>
-      <c r="AA61">
+      <c r="Z61" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="10">
         <v>565</v>
       </c>
-      <c r="AB61">
+      <c r="AB61" s="10">
         <v>103.96</v>
       </c>
+      <c r="AD61" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE61" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF61" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG61" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH61" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI61" s="12">
+        <f t="shared" si="1"/>
+        <v>63451.436119999984</v>
+      </c>
+      <c r="AJ61" s="11">
+        <f t="shared" si="2"/>
+        <v>58640</v>
+      </c>
+      <c r="AK61" s="13">
+        <f t="shared" si="3"/>
+        <v>-7.5828640204463588E-2</v>
+      </c>
+      <c r="AL61" s="12">
+        <f t="shared" si="7"/>
+        <v>-4811.4361199999839</v>
+      </c>
     </row>
-    <row r="62" spans="1:28">
-      <c r="A62" s="1">
+    <row r="62" spans="1:38" s="10" customFormat="1">
+      <c r="A62" s="9">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="10">
+        <v>1</v>
+      </c>
+      <c r="E62" s="10">
         <v>0.18</v>
       </c>
-      <c r="F62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G62">
+      <c r="F62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="10">
         <v>4</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="10">
         <v>4</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="10">
         <v>74540</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="10">
         <v>585</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="10">
         <v>1.94</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="10">
         <v>0.18</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="10">
         <v>4</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="10">
         <v>4</v>
       </c>
-      <c r="T62" t="s">
-        <v>30</v>
-      </c>
-      <c r="U62" t="s">
-        <v>161</v>
-      </c>
-      <c r="V62" t="s">
+      <c r="T62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U62" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V62" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="W62">
-        <v>1</v>
-      </c>
-      <c r="X62" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y62">
+      <c r="W62" s="10">
+        <v>1</v>
+      </c>
+      <c r="X62" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y62" s="10">
         <v>735</v>
       </c>
-      <c r="Z62">
-        <v>1</v>
-      </c>
-      <c r="AA62">
+      <c r="Z62" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="10">
         <v>735</v>
       </c>
-      <c r="AB62">
+      <c r="AB62" s="10">
         <v>132.30000000000001</v>
       </c>
+      <c r="AD62" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE62" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF62" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG62" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH62" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI62" s="12">
+        <f t="shared" si="1"/>
+        <v>73358.248099999997</v>
+      </c>
+      <c r="AJ62" s="11">
+        <f t="shared" si="2"/>
+        <v>74540</v>
+      </c>
+      <c r="AK62" s="13">
+        <f t="shared" si="3"/>
+        <v>1.6109325544266959E-2</v>
+      </c>
+      <c r="AL62" s="12">
+        <f t="shared" si="7"/>
+        <v>1181.7519000000029</v>
+      </c>
     </row>
-    <row r="63" spans="1:28">
-      <c r="A63" s="1">
+    <row r="63" spans="1:38" s="10" customFormat="1">
+      <c r="A63" s="9">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="10">
+        <v>1</v>
+      </c>
+      <c r="E63" s="10">
         <v>0.17299999999999999</v>
       </c>
-      <c r="F63" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63">
+      <c r="F63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="10">
         <v>3</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="10">
         <v>6</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="10">
         <v>55480</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="10">
         <v>585</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="10">
         <v>1.78</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="10">
         <v>0.17299999999999999</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="10">
         <v>3</v>
       </c>
-      <c r="S63">
+      <c r="S63" s="10">
         <v>6</v>
       </c>
-      <c r="T63" t="s">
-        <v>30</v>
-      </c>
-      <c r="U63" t="s">
-        <v>161</v>
-      </c>
-      <c r="V63" t="s">
+      <c r="T63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U63" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V63" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="W63">
-        <v>1</v>
-      </c>
-      <c r="X63" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y63">
+      <c r="W63" s="10">
+        <v>1</v>
+      </c>
+      <c r="X63" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y63" s="10">
         <v>565</v>
       </c>
-      <c r="Z63">
-        <v>1</v>
-      </c>
-      <c r="AA63">
+      <c r="Z63" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="10">
         <v>565</v>
       </c>
-      <c r="AB63">
+      <c r="AB63" s="10">
         <v>97.74</v>
+      </c>
+      <c r="AD63" s="10">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE63" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AF63" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AG63" s="10">
+        <f t="shared" si="5"/>
+        <v>5.07</v>
+      </c>
+      <c r="AH63" s="11">
+        <f t="shared" si="6"/>
+        <v>28249.759999999998</v>
+      </c>
+      <c r="AI63" s="12">
+        <f t="shared" si="1"/>
+        <v>60993.263779999994</v>
+      </c>
+      <c r="AJ63" s="11">
+        <f t="shared" si="2"/>
+        <v>55480</v>
+      </c>
+      <c r="AK63" s="13">
+        <f t="shared" si="3"/>
+        <v>-9.0391355345175367E-2</v>
+      </c>
+      <c r="AL63" s="12">
+        <f t="shared" si="7"/>
+        <v>-5513.2637799999939</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>